--- a/fhir/conceptmap-obs-code-to-ucum.xlsx
+++ b/fhir/conceptmap-obs-code-to-ucum.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -273,6 +273,30 @@
   </si>
   <si>
     <t>CAT score;Pt</t>
+  </si>
+  <si>
+    <t>MCS88192</t>
+  </si>
+  <si>
+    <t>Skridt per dag;Pt</t>
+  </si>
+  <si>
+    <t>/d</t>
+  </si>
+  <si>
+    <t>MCS88193</t>
+  </si>
+  <si>
+    <t>Skridt per uge;Pt</t>
+  </si>
+  <si>
+    <t>/wk</t>
+  </si>
+  <si>
+    <t>MCS88194</t>
+  </si>
+  <si>
+    <t>Skridt;Pt</t>
   </si>
   <si>
     <t>http://ehealth.sundhed.dk/cs/ehealth-unit-code</t>
@@ -718,7 +742,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -891,6 +915,57 @@
         <v>80</v>
       </c>
       <c r="E10" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>81</v>
       </c>
     </row>
@@ -935,7 +1010,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>21</v>
@@ -943,19 +1018,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>34</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/conceptmap-obs-code-to-ucum.xlsx
+++ b/fhir/conceptmap-obs-code-to-ucum.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
     <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
     <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
+    <sheet name="Mapping Table 3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="117">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -56,7 +57,7 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -315,6 +316,57 @@
   </si>
   <si>
     <t>one per 30 seconds</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>39126-8</t>
+  </si>
+  <si>
+    <t>Length of Wound</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>centimeter</t>
+  </si>
+  <si>
+    <t>39125-0</t>
+  </si>
+  <si>
+    <t>Width of Wound</t>
+  </si>
+  <si>
+    <t>39127-6</t>
+  </si>
+  <si>
+    <t>Depth of Wound</t>
+  </si>
+  <si>
+    <t>89260-4</t>
+  </si>
+  <si>
+    <t>Area of wound</t>
+  </si>
+  <si>
+    <t>cm2</t>
+  </si>
+  <si>
+    <t>square centimeter</t>
+  </si>
+  <si>
+    <t>94083-3</t>
+  </si>
+  <si>
+    <t>Wound volume</t>
+  </si>
+  <si>
+    <t>cm3</t>
+  </si>
+  <si>
+    <t>cubic centimeter</t>
   </si>
 </sst>
 </file>
@@ -1039,4 +1091,136 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/fhir/conceptmap-obs-code-to-ucum.xlsx
+++ b/fhir/conceptmap-obs-code-to-ucum.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-obs-code-to-ucum.xlsx
+++ b/fhir/conceptmap-obs-code-to-ucum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -117,15 +117,30 @@
     <t>http://unitsofmeasure.org</t>
   </si>
   <si>
+    <t>DNK05472</t>
+  </si>
+  <si>
+    <t>Blodtryk systolisk;Arm</t>
+  </si>
+  <si>
+    <t>source-is-broader-than-target</t>
+  </si>
+  <si>
+    <t>mm[Hg]</t>
+  </si>
+  <si>
+    <t>DNK05473</t>
+  </si>
+  <si>
+    <t>Blodtryk diastolisk;Arm</t>
+  </si>
+  <si>
     <t>NPU03011</t>
   </si>
   <si>
     <t>O2 sat.;Hb(aB)</t>
   </si>
   <si>
-    <t>source-is-broader-than-target</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -241,9 +256,6 @@
   </si>
   <si>
     <t>Blodtryk hjemme systolisk;Arm</t>
-  </si>
-  <si>
-    <t>mm[Hg]</t>
   </si>
   <si>
     <t>millimeter of mercury</t>
@@ -631,7 +643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -685,109 +697,143 @@
         <v>36</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="B9" t="s" s="2">
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="B10" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="C10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>61</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>31</v>
@@ -839,189 +885,189 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="E10" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1102,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>31</v>
@@ -1065,7 +1111,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>31</v>
@@ -1073,19 +1119,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +1166,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>31</v>
@@ -1137,87 +1183,87 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="E5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/conceptmap-obs-code-to-ucum.xlsx
+++ b/fhir/conceptmap-obs-code-to-ucum.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-obs-code-to-ucum.xlsx
+++ b/fhir/conceptmap-obs-code-to-ucum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -138,7 +138,7 @@
     <t>NPU03011</t>
   </si>
   <si>
-    <t>O2 sat.;Hb(aB)</t>
+    <t>Hb(Fe; O2-bind.; aB)—Oxygen(O2); mætn. = ?</t>
   </si>
   <si>
     <t>%</t>
@@ -150,7 +150,7 @@
     <t>NPU21692</t>
   </si>
   <si>
-    <t>Puls;Hjerte</t>
+    <t>Hjerte—Systole; frekv. = ? × 1/min</t>
   </si>
   <si>
     <t>1/min</t>
@@ -162,7 +162,7 @@
     <t>NPU03804</t>
   </si>
   <si>
-    <t>Legeme vægt; Pt</t>
+    <t>Pt—Legeme; masse = ? kg</t>
   </si>
   <si>
     <t>kg</t>
@@ -207,18 +207,6 @@
     <t>degree Celcius</t>
   </si>
   <si>
-    <t>NPU19748</t>
-  </si>
-  <si>
-    <t>P—C-reaktivt protein; massek. = ? mg/L</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>milligram per liter</t>
-  </si>
-  <si>
     <t>urn:oid:1.2.208.184.100.8</t>
   </si>
   <si>
@@ -250,21 +238,6 @@
   </si>
   <si>
     <t>ratio</t>
-  </si>
-  <si>
-    <t>MCS88019</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme systolisk;Arm</t>
-  </si>
-  <si>
-    <t>millimeter of mercury</t>
-  </si>
-  <si>
-    <t>MCS88020</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme diastolisk;Arm</t>
   </si>
   <si>
     <t>MCS88021</t>
@@ -643,6 +616,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -668,7 +824,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>31</v>
@@ -685,389 +841,155 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s" s="2">
         <v>77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1024,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>31</v>
@@ -1111,7 +1033,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>31</v>
@@ -1119,19 +1041,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1088,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>31</v>
@@ -1183,87 +1105,87 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/conceptmap-obs-code-to-ucum.xlsx
+++ b/fhir/conceptmap-obs-code-to-ucum.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-obs-code-to-ucum.xlsx
+++ b/fhir/conceptmap-obs-code-to-ucum.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-obs-code-to-ucum.xlsx
+++ b/fhir/conceptmap-obs-code-to-ucum.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-obs-code-to-ucum.xlsx
+++ b/fhir/conceptmap-obs-code-to-ucum.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
